--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C8AEDA-FC9D-4649-8945-F3F9CA3EE76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BCB4C1-6C71-4D17-B136-09029A545BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="2820" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>what</t>
   </si>
@@ -37,36 +37,12 @@
     <t>why</t>
   </si>
   <si>
-    <t>Frontiers in Psychology</t>
-  </si>
-  <si>
     <t>Review Editor</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Universidad Nacional de Colombia</t>
-  </si>
-  <si>
-    <t>Human Ethology Bulletin</t>
-  </si>
-  <si>
-    <t>Journal of Nonverbal Behavior</t>
-  </si>
-  <si>
-    <t>Royal Society Open Science</t>
-  </si>
-  <si>
-    <t>Basic and Applied Social Psychology</t>
-  </si>
-  <si>
-    <t>Proceedings of the Royal Society B: Biological Sciences</t>
-  </si>
-  <si>
-    <t>Par Ad Hoc</t>
-  </si>
-  <si>
     <t>Comités Editoriales</t>
   </si>
   <si>
@@ -91,49 +67,76 @@
     <t>Journals Incluyen</t>
   </si>
   <si>
-    <t>Specialty section on Evolutionary Psychology</t>
-  </si>
-  <si>
     <t>Instituciones Colombianas</t>
   </si>
   <si>
     <t>Guest Editor</t>
   </si>
   <si>
-    <t>Philosophical Transactions of the Royal Society B</t>
-  </si>
-  <si>
-    <t>Theme Issue "Voice modulation: from origin and mechanism to social impact"</t>
-  </si>
-  <si>
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Summa Psicológica</t>
-  </si>
-  <si>
-    <t>Evolution and Human Behavior</t>
-  </si>
-  <si>
-    <t>Scientific Reports</t>
-  </si>
-  <si>
-    <t>Perception</t>
-  </si>
-  <si>
-    <t>Cortex</t>
-  </si>
-  <si>
     <t>Editado por Juan David Leongómez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman y Jaroslava Varella Valentova</t>
   </si>
   <si>
-    <t>MinCiencias</t>
-  </si>
-  <si>
-    <t>Evolutionary Psychology</t>
-  </si>
-  <si>
-    <t>PLOS ONE</t>
+    <t>Par \textit{Ad Hoc}</t>
+  </si>
+  <si>
+    <t>\href{https://www.frontiersin.org/journals/psychology}{Frontiers in Psychology}</t>
+  </si>
+  <si>
+    <t>\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal Society B: Biological Sciences}</t>
+  </si>
+  <si>
+    <t>Specialty section on \href{https://www.frontiersin.org/journals/psychology/sections/evolutionary-psychology}{Evolutionary Psychology}</t>
+  </si>
+  <si>
+    <t>Perfil \href{https://loop.frontiersin.org/people/438954/overview}{Loop}</t>
+  </si>
+  <si>
+    <t>Theme Issue \textbf{\textit{Voice modulation: from origin and mechanism to social impact}} (\href{https://royalsocietypublishing.org/toc/rstb/2021/376/1840}{\textbf{Parte 1}}, \href{https://royalsocietypublishing.org/toc/rstb/2022/377/1841}{\textbf{Parte 2}})</t>
+  </si>
+  <si>
+    <t>\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: Biological Sciences}</t>
+  </si>
+  <si>
+    <t>\href{https://royalsocietypublishing.org/journal/rsos}{Royal Society Open Science}</t>
+  </si>
+  <si>
+    <t>\href{https://journals.plos.org/plosone/}{PLOS ONE}</t>
+  </si>
+  <si>
+    <t>\href{https://www.sciencedirect.com/journal/evolution-and-human-behavior}{Evolution and Human Behavior}</t>
+  </si>
+  <si>
+    <t>\href{https://www.nature.com/srep/}{Scientific Reports}</t>
+  </si>
+  <si>
+    <t>\href{https://www.tandfonline.com/journals/hbas20}{Basic and Applied Social Psychology}</t>
+  </si>
+  <si>
+    <t>\href{https://www.sciencedirect.com/journal/cortex}{Cortex}</t>
+  </si>
+  <si>
+    <t>\href{https://www.springer.com/journal/10919/}{Journal of Nonverbal Behavior}</t>
+  </si>
+  <si>
+    <t>\href{https://journals.sagepub.com/home/pec}{Perception}</t>
+  </si>
+  <si>
+    <t>\href{https://journals.sagepub.com/home/evp}{Evolutionary Psychology}</t>
+  </si>
+  <si>
+    <t>\href{http://sumapsicologica.konradlorenz.edu.co/}{Summa Psicológica}</t>
+  </si>
+  <si>
+    <t>\href{https://ishe.org/human-ethology/}{Human Ethology}</t>
+  </si>
+  <si>
+    <t>\href{https://minciencias.gov.co/}{MinCiencias}</t>
+  </si>
+  <si>
+    <t>\href{https://unal.edu.co/}{Universidad Nacional de Colombia}</t>
   </si>
 </sst>
 </file>
@@ -625,9 +628,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -984,186 +989,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="128.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="128.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>8</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BCB4C1-6C71-4D17-B136-09029A545BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D16541-427E-430F-8D89-4B9A874EF1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2820" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28125" yWindow="1815" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -133,10 +133,10 @@
     <t>\href{https://ishe.org/human-ethology/}{Human Ethology}</t>
   </si>
   <si>
-    <t>\href{https://minciencias.gov.co/}{MinCiencias}</t>
-  </si>
-  <si>
     <t>\href{https://unal.edu.co/}{Universidad Nacional de Colombia}</t>
+  </si>
+  <si>
+    <t>\href{https://minciencias.gov.co/}{Minciencias}</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,12 +1169,12 @@
         <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D16541-427E-430F-8D89-4B9A874EF1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC20418-222D-4E3F-B995-95085F305489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28125" yWindow="1815" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC20418-222D-4E3F-B995-95085F305489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13259E6-616C-4DF4-842A-1DB5DD8F40DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>what</t>
   </si>
@@ -43,9 +43,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Comités Editoriales</t>
-  </si>
-  <si>
     <t>Par Académico</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Desde 2015</t>
   </si>
   <si>
-    <t>Journals Internacionales</t>
-  </si>
-  <si>
     <t>Journals Incluyen</t>
   </si>
   <si>
@@ -137,6 +131,33 @@
   </si>
   <si>
     <t>\href{https://minciencias.gov.co/}{Minciencias}</t>
+  </si>
+  <si>
+    <t>Recommender (editor)</t>
+  </si>
+  <si>
+    <t>\href{https://rr.peercommunityin.org/}{PCI Registered Reports}</t>
+  </si>
+  <si>
+    <t>Recommender</t>
+  </si>
+  <si>
+    <t>Desde 2023</t>
+  </si>
+  <si>
+    <t>Emisión de recomendaciones de las fases 1 y 2</t>
+  </si>
+  <si>
+    <t>Perfil \href{https://rr.peercommunityin.org/public/user_public_page?userId=1996}{Recommender}</t>
+  </si>
+  <si>
+    <t>Comité Editorial invitado</t>
+  </si>
+  <si>
+    <t>Equipo editorial</t>
+  </si>
+  <si>
+    <t>\textit{Journals} Internacionales</t>
   </si>
 </sst>
 </file>
@@ -989,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,37 +1043,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -1060,65 +1084,74 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,50 +1164,63 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="1" t="s">
-        <v>37</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13259E6-616C-4DF4-842A-1DB5DD8F40DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D27EA4-6720-46A6-B5F6-1D2885976D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>what</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>\textit{Journals} Internacionales</t>
+  </si>
+  <si>
+    <t>\href{https://royalsocietypublishing.org/journal/rsbl}{Biology Letters}</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,85 +1144,90 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D27EA4-6720-46A6-B5F6-1D2885976D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A8865E-6E3B-4641-B85D-9F0C75CD4DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>what</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Recommender (editor)</t>
   </si>
   <si>
-    <t>\href{https://rr.peercommunityin.org/}{PCI Registered Reports}</t>
-  </si>
-  <si>
     <t>Recommender</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>\href{https://royalsocietypublishing.org/journal/rsbl}{Biology Letters}</t>
+  </si>
+  <si>
+    <t>\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
   </si>
 </sst>
 </file>
@@ -717,9 +717,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -757,7 +757,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -863,7 +863,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1005,7 +1005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1013,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,21 +1051,21 @@
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -1101,7 +1101,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -1123,15 +1123,15 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,27 +1139,27 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,12 +1167,12 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1180,12 +1180,12 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,40 +1194,45 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C55BE0-3919-4382-9929-34BC3E4B4E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A2DC6F-C80F-4496-AF4A-154F677F5EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="3720" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25725" yWindow="3075" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>\href{http://sumapsicologica.konradlorenz.edu.co/}{Summa Psicológica}</t>
   </si>
   <si>
-    <t>Evaluación de Publicaciones</t>
-  </si>
-  <si>
     <t>Desde 2015</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   <si>
     <t>\vspace{-4.0mm} \begin{multicols}{3}
 \href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
+  </si>
+  <si>
+    <t>Evaluación de Publicaciones/\textit{Grants}</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,12 +553,12 @@
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,29 +638,29 @@
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A2DC6F-C80F-4496-AF4A-154F677F5EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25725" yWindow="3075" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>what</t>
   </si>
@@ -37,150 +33,150 @@
     <t>why</t>
   </si>
   <si>
-    <t>Recommender (equivalente a Editor Asociado)</t>
-  </si>
-  <si>
-    <t>Desde 2023</t>
-  </si>
-  <si>
-    <t>\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
+    <t xml:space="preserve">Recommender (equivalente a Editor Asociado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
   </si>
   <si>
     <t>Recommender</t>
   </si>
   <si>
-    <t>Emisión de recomendaciones de las fases 1 y 2</t>
-  </si>
-  <si>
-    <t>Perfil \href{https://rr.peercommunityin.org/public/user_public_page?userId=1996}{Recommender}</t>
-  </si>
-  <si>
-    <t>Guest Editor</t>
-  </si>
-  <si>
-    <t>2020 - 2021</t>
-  </si>
-  <si>
-    <t>\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal Society B: Biological Sciences}</t>
-  </si>
-  <si>
-    <t>Comité Editorial invitado</t>
-  </si>
-  <si>
-    <t>Theme Issue \textbf{\textit{Voice modulation: from origin and mechanism to social impact}} (\href{https://royalsocietypublishing.org/toc/rstb/2021/376/1840}{\textbf{Parte 1}}, \href{https://royalsocietypublishing.org/toc/rstb/2022/377/1841}{\textbf{Parte 2}})</t>
-  </si>
-  <si>
-    <t>Editado por Juan David Leongómez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman y Jaroslava Varella Valentova</t>
-  </si>
-  <si>
-    <t>Review Editor</t>
-  </si>
-  <si>
-    <t>2019 - Actualmente</t>
-  </si>
-  <si>
-    <t>\href{https://www.frontiersin.org/journals/psychology}{Frontiers in Psychology}</t>
-  </si>
-  <si>
-    <t>Equipo editorial</t>
-  </si>
-  <si>
-    <t>Specialty section on \href{https://www.frontiersin.org/journals/psychology/sections/evolutionary-psychology}{Evolutionary Psychology}</t>
-  </si>
-  <si>
-    <t>Perfil \href{https://loop.frontiersin.org/people/438954/overview}{Loop}</t>
-  </si>
-  <si>
-    <t>Journals Incluyen</t>
-  </si>
-  <si>
-    <t>Desde 2013</t>
-  </si>
-  <si>
-    <t>Par \textit{Ad Hoc}</t>
-  </si>
-  <si>
-    <t>\textit{Journals} Internacionales</t>
+    <t xml:space="preserve">Emisión de recomendaciones de las fases 1 y 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfil \href{https://rr.peercommunityin.org/public/user_public_page?userId=1996}{Recommender}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 - 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal Society B: Biological Sciences}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comité Editorial invitado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theme Issue \textbf{\textit{Voice modulation: from origin and mechanism to social impact}} (\href{https://royalsocietypublishing.org/toc/rstb/2021/376/1840}{\textbf{Parte 1}}, \href{https://royalsocietypublishing.org/toc/rstb/2022/377/1841}{\textbf{Parte 2}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editado por Juan David Leongómez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman y Jaroslava Varella Valentova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 - 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://www.frontiersin.org/journals/psychology}{Frontiers in Psychology}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialty section on \href{https://www.frontiersin.org/journals/psychology/sections/evolutionary-psychology}{Evolutionary Psychology}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfil \href{https://loop.frontiersin.org/people/438954/overview}{Loop}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journals Incluyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par \textit{Ad Hoc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\textit{Journals} Internacionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\vspace{-4.0mm} \begin{multicols}{3}
+\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: \newline Biological Sciences}</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>\href{https://royalsocietypublishing.org/journal/rsos}{Royal Society Open Science}</t>
-  </si>
-  <si>
-    <t>\href{https://journals.plos.org/plosone/}{PLOS ONE}</t>
-  </si>
-  <si>
-    <t>\href{https://royalsocietypublishing.org/journal/rsbl}{Biology Letters}</t>
-  </si>
-  <si>
-    <t>\href{https://www.sciencedirect.com/journal/evolution-and-human-behavior}{Evolution and Human Behavior}</t>
-  </si>
-  <si>
-    <t>\href{https://www.nature.com/srep/}{Scientific Reports}</t>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rsos}{Royal Society Open Science}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://journals.plos.org/plosone/}{PLOS ONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rsbl}{Biology Letters}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://www.sciencedirect.com/journal/evolution-and-human-behavior}{Evolution and Human Behavior}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://www.nature.com/srep/}{Scientific Reports}</t>
   </si>
   <si>
     <t>\href{https://www.sciencedirect.com/journal/cortex}{Cortex}</t>
   </si>
   <si>
-    <t>\href{https://www.springer.com/journal/10919/}{Journal of Nonverbal Behavior}</t>
+    <t xml:space="preserve">\href{https://www.springer.com/journal/10919/}{Journal of Nonverbal Behavior}</t>
   </si>
   <si>
     <t>\href{https://journals.sagepub.com/home/pec}{Perception}</t>
   </si>
   <si>
-    <t>\href{https://www.tandfonline.com/journals/hbas20}{Basic and Applied Social Psychology}</t>
-  </si>
-  <si>
-    <t>\href{https://journals.sagepub.com/home/evp}{Evolutionary Psychology}</t>
-  </si>
-  <si>
-    <t>\href{http://sumapsicologica.konradlorenz.edu.co/}{Summa Psicológica}</t>
-  </si>
-  <si>
-    <t>Desde 2015</t>
-  </si>
-  <si>
-    <t>Par Académico</t>
-  </si>
-  <si>
-    <t>Instituciones Colombianas</t>
+    <t xml:space="preserve">\href{https://www.tandfonline.com/journals/hbas20}{Basic and Applied Social Psychology}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://journals.sagepub.com/home/evp}{Evolutionary Psychology}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{http://sumapsicologica.konradlorenz.edu.co/}{Summa Psicológica}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://ishe.org/human-ethology/}{Human Ethology}
+\end{multicols}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación de Publicaciones/\textit{Grants}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par Académico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituciones Colombianas</t>
   </si>
   <si>
     <t>\href{https://minciencias.gov.co/}{Minciencias}</t>
   </si>
   <si>
-    <t>\href{https://unal.edu.co/}{Universidad Nacional de Colombia}</t>
-  </si>
-  <si>
-    <t>\href{https://ishe.org/human-ethology/}{Human Ethology}
-\end{multicols}</t>
-  </si>
-  <si>
-    <t>\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: \newline Biological Sciences}</t>
-  </si>
-  <si>
-    <t>\vspace{-4.0mm} \begin{multicols}{3}
-\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
-  </si>
-  <si>
-    <t>Evaluación de Publicaciones/\textit{Grants}</t>
+    <t xml:space="preserve">\href{https://unal.edu.co/}{Universidad Nacional de Colombia}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="5"/>
+      <sz val="5.000000"/>
       <color indexed="65"/>
       <name val="Source Sans Pro"/>
     </font>
@@ -195,22 +191,22 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -230,8 +226,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -434,29 +713,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="128.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="26.28515625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="44.85546875"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="24.7109375"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="128.42578125"/>
+    <col min="6" max="16384" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -490,12 +767,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" ht="42.75">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -512,12 +789,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" ht="28.5">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -534,12 +811,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" ht="28.5">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -553,118 +830,120 @@
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="D21" s="2"/>
       <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5">
       <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>what</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">\href{https://journals.sagepub.com/home/evp}{Evolutionary Psychology}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://www.apa.org/pubs/journals/pac}{Peace and Conflict: Journal of \newline Peace Psychology}</t>
   </si>
   <si>
     <t xml:space="preserve">\href{http://sumapsicologica.konradlorenz.edu.co/}{Summa Psicológica}</t>
@@ -201,12 +204,15 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,7 +725,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C6" zoomScale="100" workbookViewId="0">
       <selection activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -909,35 +915,41 @@
     </row>
     <row r="21">
       <c r="D21" s="2"/>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" ht="28.5">
+    <row r="22">
+      <c r="D22" s="2"/>
       <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" ht="28.5">
-      <c r="A23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" ht="28.5">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24">
       <c r="E24" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t xml:space="preserve">what</t>
   </si>
@@ -37,6 +37,27 @@
     <t xml:space="preserve">why</t>
   </si>
   <si>
+    <t xml:space="preserve">Data Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar el cumplimiento de los estándares de disponibilidad de datos y código antes de la aceptación de los artículos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobar que los conjuntos de datos, códigos y materiales de investigación estén completos, sean accesibles y coherentes con los resultados reportados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientar a los autores que no cumplan con las políticas de datos abiertos, indicando los ajustes necesarios</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recommender (equivalente a Editor Asociado)</t>
   </si>
   <si>
@@ -80,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">\href{https://www.frontiersin.org/journals/psychology}{Frontiers in Psychology}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipo editorial</t>
   </si>
   <si>
     <t xml:space="preserve">Specialty section on \href{https://www.frontiersin.org/journals/psychology/sections/evolutionary-psychology}{Evolutionary Psychology}</t>
@@ -110,35 +128,7 @@
     <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: \newline Biological Sciences}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">\newline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Society B: Biological Sciences}</t>
-    </r>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal \newline Society B: Biological Sciences}</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -239,7 +229,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="5"/>
@@ -291,20 +282,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,13 +496,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
@@ -531,214 +530,250 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="1" t="s">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="2" t="s">
-        <v>32</v>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="1" t="s">
-        <v>35</v>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="3"/>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="3"/>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="5"/>
       <c r="E25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="5"/>
+      <c r="E26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="5"/>
+      <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="1" t="s">
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" display="https://nyaspubs.onlinelibrary.wiley.com/journal/17496632"/>
+    <hyperlink ref="E15" r:id="rId1" display="\href{https://nyaspubs.onlinelibrary.wiley.com/journal/17496632}{Annals of the New York Academy of Sciences}"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data/service_es.xlsx
+++ b/data/service_es.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Data Editor</t>
   </si>
   <si>
-    <t xml:space="preserve">Since 2025</t>
+    <t xml:space="preserve">Desde 2025</t>
   </si>
   <si>
     <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B}</t>
@@ -499,10 +499,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -546,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -608,7 +608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -630,7 +630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -743,12 +743,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
